--- a/outputFile/together&comp4_FPremoverDTW_before_standardized_thresholdStudy.xlsx
+++ b/outputFile/together&comp4_FPremoverDTW_before_standardized_thresholdStudy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:AU22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,227 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>t:{t} d:{div}</t>
+          <t>t:0.2 d:1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>t:0.2 d:2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>t:0.2 d:3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>t:0.4 d:1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>t:0.4 d:2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>t:0.4 d:3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>t:0.6 d:1</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>t:0.6 d:2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>t:0.6 d:3</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>t:0.8 d:1</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>t:0.8 d:2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>t:0.8 d:3</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>t:1.0 d:1</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>t:1.0 d:2</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>t:1.0 d:3</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>t:1.2 d:1</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>t:1.2 d:2</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>t:1.2 d:3</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>t:1.4 d:1</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>t:1.4 d:2</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>t:1.4 d:3</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>t:1.6 d:1</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>t:1.6 d:2</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>t:1.6 d:3</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>t:1.8 d:1</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>t:1.8 d:2</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>t:1.8 d:3</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>t:2.0 d:1</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>t:2.0 d:2</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>t:2.0 d:3</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>t:2.2 d:1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>t:2.2 d:2</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>t:2.2 d:3</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>t:2.4 d:1</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>t:2.4 d:2</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>t:2.4 d:3</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>t:2.6 d:1</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>t:2.6 d:2</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>t:2.6 d:3</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>t:2.8 d:1</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>t:2.8 d:2</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>t:2.8 d:3</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>t:3.0 d:1</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>t:3.0 d:2</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>t:3.0 d:3</t>
         </is>
       </c>
     </row>
@@ -455,6 +675,138 @@
         </is>
       </c>
       <c r="C2" t="n">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6415094339622642</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.6415094339622642</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.6415094339622642</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.6415094339622642</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.6415094339622642</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.7457627118644067</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.7457627118644067</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.7457627118644067</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.7457627118644067</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.6415094339622642</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.7457627118644067</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.7457627118644067</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.7666666666666666</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.7457627118644067</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.7666666666666666</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.7666666666666666</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.7666666666666666</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.7666666666666666</v>
+      </c>
+      <c r="AU2" t="n">
         <v>0.6153846153846154</v>
       </c>
     </row>
@@ -468,6 +820,138 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>0.8205128205128205</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4528301886792453</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.326530612244898</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.8205128205128205</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.4528301886792453</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.326530612244898</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.8205128205128205</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.4528301886792453</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.326530612244898</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.8205128205128205</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.4528301886792453</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.326530612244898</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.8205128205128205</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.4528301886792453</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.2916666666666666</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.8205128205128205</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.4528301886792453</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.2916666666666666</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.8205128205128205</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.4528301886792453</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.2916666666666666</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.8205128205128205</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.4528301886792453</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.2916666666666666</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.8205128205128205</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.4528301886792453</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.2916666666666666</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.8311688311688312</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.4528301886792453</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.2916666666666666</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.4528301886792453</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.2916666666666666</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.4528301886792453</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.2916666666666666</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.4528301886792453</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.2916666666666666</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.4528301886792453</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.2916666666666666</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.4528301886792453</v>
+      </c>
+      <c r="AU3" t="n">
         <v>0.2916666666666666</v>
       </c>
     </row>
@@ -481,6 +965,138 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>0.787878787878788</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7333333333333334</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.787878787878788</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.7333333333333334</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.787878787878788</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.7333333333333334</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.787878787878788</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.7333333333333334</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.787878787878788</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.7333333333333334</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.787878787878788</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.7333333333333334</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.787878787878788</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.7333333333333334</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.787878787878788</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.7333333333333334</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.787878787878788</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.7333333333333334</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.787878787878788</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.7333333333333334</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.787878787878788</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.7333333333333334</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.787878787878788</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.7333333333333334</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.787878787878788</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.7333333333333334</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.787878787878788</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.7333333333333334</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.787878787878788</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.7333333333333334</v>
+      </c>
+      <c r="AU4" t="n">
         <v>0.5600000000000001</v>
       </c>
     </row>
@@ -494,6 +1110,138 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>0.4193548387096774</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5090909090909091</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.4262295081967213</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.5090909090909091</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.3939393939393939</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.5490196078431373</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.3692307692307691</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.5490196078431373</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.3939393939393939</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.4827586206896551</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.5283018867924528</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.4242424242424243</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.417910447761194</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.5098039215686274</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.3939393939393939</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.3939393939393939</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.5090909090909091</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.5490196078431373</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.4637681159420289</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.5490196078431373</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.4637681159420289</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.4477611940298508</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.5090909090909091</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.4687500000000001</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="AU5" t="n">
         <v>0.5600000000000001</v>
       </c>
     </row>
@@ -507,6 +1255,138 @@
         </is>
       </c>
       <c r="C6" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5128205128205129</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5128205128205129</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5128205128205129</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5128205128205129</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.5128205128205129</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.5128205128205129</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.5128205128205129</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.5128205128205129</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.5128205128205129</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.5128205128205129</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.5128205128205129</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.5128205128205129</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.5128205128205129</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.5128205128205129</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.5128205128205129</v>
+      </c>
+      <c r="AU6" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -520,6 +1400,138 @@
         </is>
       </c>
       <c r="C7" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5365853658536585</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.4324324324324324</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.5306122448979592</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.5306122448979592</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.5306122448979592</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.5306122448979592</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.5306122448979592</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.5306122448979592</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.5306122448979592</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.5306122448979592</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.5128205128205129</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.5128205128205129</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.5128205128205129</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.5128205128205129</v>
+      </c>
+      <c r="AU7" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -533,6 +1545,138 @@
         </is>
       </c>
       <c r="C8" t="n">
+        <v>0.6818181818181819</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4324324324324325</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.6818181818181819</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.4324324324324325</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.6818181818181819</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.4324324324324325</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.6818181818181819</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.4324324324324325</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.6818181818181819</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.4324324324324325</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.6818181818181819</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.4324324324324325</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.6818181818181819</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.4324324324324325</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.6818181818181819</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.4324324324324325</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.711111111111111</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.4324324324324325</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.711111111111111</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.4324324324324325</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.711111111111111</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.4324324324324325</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.711111111111111</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.4324324324324325</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.711111111111111</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.4324324324324325</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.711111111111111</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.4324324324324325</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.711111111111111</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.4324324324324325</v>
+      </c>
+      <c r="AU8" t="n">
         <v>0.2941176470588235</v>
       </c>
     </row>
@@ -546,6 +1690,138 @@
         </is>
       </c>
       <c r="C9" t="n">
+        <v>0.6511627906976744</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4571428571428572</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.6511627906976744</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.4571428571428572</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.6511627906976744</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.4571428571428572</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.6511627906976744</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.4571428571428572</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.6511627906976744</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.4571428571428572</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.6511627906976744</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.4571428571428572</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.6511627906976744</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.4571428571428572</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.6511627906976744</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.4571428571428572</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.6511627906976744</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.4571428571428572</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.6511627906976744</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.4571428571428572</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.6511627906976744</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.4571428571428572</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.6511627906976744</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.4571428571428572</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.6511627906976744</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.4571428571428572</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.6511627906976744</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.4571428571428572</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.4571428571428572</v>
+      </c>
+      <c r="AU9" t="n">
         <v>0.3125</v>
       </c>
     </row>
@@ -559,6 +1835,138 @@
         </is>
       </c>
       <c r="C10" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU10" t="n">
         <v>0.1379310344827586</v>
       </c>
     </row>
@@ -572,6 +1980,138 @@
         </is>
       </c>
       <c r="C11" t="n">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4406779661016949</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.3272727272727273</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.4406779661016949</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.3272727272727273</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.4406779661016949</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.3272727272727273</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.4406779661016949</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.3272727272727273</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.4406779661016949</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.3272727272727273</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.4406779661016949</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.3272727272727273</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.4406779661016949</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.3272727272727273</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.4406779661016949</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.2962962962962963</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.4406779661016949</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.2962962962962963</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.4406779661016949</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.2962962962962963</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.4406779661016949</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.2962962962962963</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.4406779661016949</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.2962962962962963</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.4406779661016949</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.2962962962962963</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.4406779661016949</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0.2962962962962963</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0.4406779661016949</v>
+      </c>
+      <c r="AU11" t="n">
         <v>0.2962962962962963</v>
       </c>
     </row>
@@ -585,6 +2125,138 @@
         </is>
       </c>
       <c r="C12" t="n">
+        <v>0.4827586206896552</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5098039215686274</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.4827586206896552</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.5098039215686274</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.4827586206896552</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5098039215686274</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.4102564102564102</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.4827586206896552</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.5098039215686274</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.4102564102564102</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.4827586206896552</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.5098039215686274</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.4102564102564102</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.4912280701754386</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.5098039215686274</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.4102564102564102</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.4912280701754386</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.5098039215686274</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.4102564102564102</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.4912280701754386</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.5098039215686274</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.4102564102564102</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.4102564102564102</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.4102564102564102</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.4102564102564102</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.5090909090909091</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.4102564102564102</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.5490196078431373</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.4102564102564102</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.4897959183673469</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0.4210526315789474</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0.4897959183673469</v>
+      </c>
+      <c r="AU12" t="n">
         <v>0.4210526315789474</v>
       </c>
     </row>
@@ -598,6 +2270,138 @@
         </is>
       </c>
       <c r="C13" t="n">
+        <v>0.6249999999999999</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.6249999999999999</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.6249999999999999</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.6249999999999999</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.6249999999999999</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.6249999999999999</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.6249999999999999</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.6249999999999999</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.6249999999999999</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.6249999999999999</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.6249999999999999</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.6249999999999999</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.6249999999999999</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0.6249999999999999</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0.6249999999999999</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AU13" t="n">
         <v>0.08695652173913042</v>
       </c>
     </row>
@@ -611,6 +2415,138 @@
         </is>
       </c>
       <c r="C14" t="n">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="AU14" t="n">
         <v>0.1111111111111111</v>
       </c>
     </row>
@@ -624,6 +2560,138 @@
         </is>
       </c>
       <c r="C15" t="n">
+        <v>0.2173913043478261</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.1538461538461538</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.1290322580645161</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.2222222222222223</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.1578947368421053</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.2222222222222223</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.1578947368421053</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.2325581395348837</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.1481481481481481</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.2222222222222223</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.1538461538461538</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.2222222222222223</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.2272727272727273</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.2222222222222223</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.1621621621621621</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.2222222222222223</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.1621621621621621</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.2173913043478261</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.2173913043478261</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0.2222222222222223</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0.1142857142857143</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0.2127659574468085</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.1818181818181819</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0.2127659574468085</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0.1818181818181819</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0.2127659574468085</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="AU15" t="n">
         <v>0.1904761904761905</v>
       </c>
     </row>
@@ -637,6 +2705,138 @@
         </is>
       </c>
       <c r="C16" t="n">
+        <v>0.4578313253012049</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.5517241379310345</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5301204819277109</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.4819277108433734</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.5747126436781609</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.5542168674698795</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.4819277108433734</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5747126436781609</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.5542168674698795</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.4819277108433734</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.5747126436781609</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.5542168674698795</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.4634146341463415</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.5517241379310345</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.5301204819277109</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.4523809523809524</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.5517241379310345</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.5301204819277109</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.4523809523809524</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.5517241379310345</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.5301204819277109</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.5287356321839081</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.5287356321839081</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.5287356321839081</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.5287356321839081</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.5348837209302325</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.5348837209302325</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.5348837209302325</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0.5287356321839081</v>
+      </c>
+      <c r="AU16" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -650,6 +2850,138 @@
         </is>
       </c>
       <c r="C17" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="AU17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -663,6 +2995,138 @@
         </is>
       </c>
       <c r="C18" t="n">
+        <v>0.6896551724137931</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.3478260869565218</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.6896551724137931</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.3478260869565218</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.6896551724137931</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.3478260869565218</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.6896551724137931</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.3478260869565218</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.6896551724137931</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.3478260869565218</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.6896551724137931</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.3478260869565218</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.6896551724137931</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.3478260869565218</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.6896551724137931</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.3478260869565218</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.6896551724137931</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.3478260869565218</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.6896551724137931</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.3478260869565218</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0.6896551724137931</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0.3478260869565218</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0.6896551724137931</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0.3478260869565218</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0.6896551724137931</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0.3478260869565218</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0.6896551724137931</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0.3478260869565218</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>0.6896551724137931</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0.3478260869565218</v>
+      </c>
+      <c r="AU18" t="n">
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -676,6 +3140,138 @@
         </is>
       </c>
       <c r="C19" t="n">
+        <v>0.689655172413793</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.588235294117647</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.3555555555555555</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.689655172413793</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.588235294117647</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.3555555555555555</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.689655172413793</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.588235294117647</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.3555555555555555</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.689655172413793</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.588235294117647</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.3555555555555555</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.689655172413793</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.588235294117647</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.3555555555555555</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.689655172413793</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.588235294117647</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.3555555555555555</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.689655172413793</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.588235294117647</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.3555555555555555</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.689655172413793</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.588235294117647</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.3555555555555555</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.689655172413793</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.588235294117647</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.3555555555555555</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.689655172413793</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.588235294117647</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.3555555555555555</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.588235294117647</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.3555555555555555</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.689655172413793</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0.3555555555555555</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.689655172413793</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.3555555555555555</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0.689655172413793</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0.3555555555555555</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0.689655172413793</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="AU19" t="n">
         <v>0.3555555555555555</v>
       </c>
     </row>
@@ -689,6 +3285,138 @@
         </is>
       </c>
       <c r="C20" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.3409090909090909</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.3409090909090909</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.4646464646464646</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.3218390804597701</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.4646464646464646</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.3218390804597701</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.4646464646464646</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.3218390804597701</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.4646464646464646</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.3023255813953489</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.4646464646464646</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.3023255813953489</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.4646464646464646</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.3023255813953489</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.4646464646464646</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.3023255813953489</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.6991869918699187</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.4489795918367347</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.3023255813953489</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.6991869918699187</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.4489795918367347</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.2823529411764706</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.6991869918699187</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.4489795918367347</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.2823529411764706</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.6991869918699187</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0.4489795918367347</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.2823529411764706</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0.6991869918699187</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.4489795918367347</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0.2823529411764706</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0.6991869918699187</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0.4489795918367347</v>
+      </c>
+      <c r="AU20" t="n">
         <v>0.2823529411764706</v>
       </c>
     </row>
@@ -702,6 +3430,138 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>0.7031250000000001</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.4716981132075472</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.3191489361702127</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.7031250000000001</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.4716981132075472</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.3191489361702127</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.7031250000000001</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.4716981132075472</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.3191489361702127</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.6976744186046512</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.4716981132075472</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.3191489361702127</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.6976744186046512</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.4716981132075472</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.3191489361702127</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.6976744186046512</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.4716981132075472</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.3010752688172043</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.6976744186046512</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.4716981132075472</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.3010752688172043</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.6976744186046512</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.4716981132075472</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.3010752688172043</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.6976744186046512</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.4716981132075472</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.3010752688172043</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.6976744186046512</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.4571428571428571</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.3010752688172043</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.6976744186046512</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.4571428571428571</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.3010752688172043</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.6976744186046512</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.4571428571428571</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0.3010752688172043</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.6976744186046512</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0.4571428571428571</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.3010752688172043</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0.6976744186046512</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0.4571428571428571</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0.3010752688172043</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0.6976744186046512</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0.4571428571428571</v>
+      </c>
+      <c r="AU21" t="n">
         <v>0.3010752688172043</v>
       </c>
     </row>
@@ -715,6 +3575,138 @@
         </is>
       </c>
       <c r="C22" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.6753246753246753</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.6301369863013698</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.6578947368421053</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.6301369863013698</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.6578947368421053</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.6301369863013698</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.6578947368421053</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.6301369863013698</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.6578947368421053</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.6301369863013698</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.6578947368421053</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.6301369863013698</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.6753246753246753</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.6486486486486486</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.6493506493506495</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.6486486486486486</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.6493506493506495</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.6486486486486486</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.6493506493506495</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.6756756756756757</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.684931506849315</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.5897435897435896</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0.6410256410256411</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.684931506849315</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0.5897435897435896</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.6582278481012659</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0.7027027027027027</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0.5897435897435896</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0.6582278481012659</v>
+      </c>
+      <c r="AU22" t="n">
         <v>0.7027027027027027</v>
       </c>
     </row>
